--- a/solicitacao_de_materiais_app/solicitacao_pcr/destinos_externos_adicionais.xlsx
+++ b/solicitacao_de_materiais_app/solicitacao_pcr/destinos_externos_adicionais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharbes\Documents\GitHub\hashtagPowerapps\solicitacao_de_materiais_app\solicitacao_pcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A734642D-D923-42D1-8FC1-EB0FFE96A0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6B7A1D-7A55-48DC-B952-746E40A72258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E80D0BFA-3D83-4DF4-B6F1-51EE4FFB857F}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E80D0BFA-3D83-4DF4-B6F1-51EE4FFB857F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FFD069D2-23D5-4327-9EB2-8251BDCB9D84}</author>
+    <author>tc={E20BC113-9E7F-4F40-A758-C8BE30812AC2}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{FFD069D2-23D5-4327-9EB2-8251BDCB9D84}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fornecedor não incluído, já estava na lista do sharepoint como BROMBERG</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{E20BC113-9E7F-4F40-A758-C8BE30812AC2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fornecedor não incluído, já estava na lista do sharepoint</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Supplier</t>
   </si>
@@ -56,9 +83,6 @@
     <t>INDUSTRIA E COMERCIO METALURGICA</t>
   </si>
   <si>
-    <t>R MARIA JOSE DE SOUZA BORBA 206 NOVA IGUACU RJ BR Postal Code/City 26022-710</t>
-  </si>
-  <si>
     <t>alessandra.samara@bromberg.ind.br</t>
   </si>
   <si>
@@ -68,9 +92,6 @@
     <t>M.B. IND. MECANICA LTDA</t>
   </si>
   <si>
-    <t>R JOAO DA SILVA MAIA 86 GUAPIMIRIM RJ BR Postal Code/City 25945-348</t>
-  </si>
-  <si>
     <t>pcp@mbindmecanica.com.br</t>
   </si>
   <si>
@@ -80,9 +101,6 @@
     <t>NG METALURGICA SA</t>
   </si>
   <si>
-    <t>EST LAZARO PEDRO DE OLIVEIRA 300 PIRACICABA SP BR Postal Code/City 13413-300</t>
-  </si>
-  <si>
     <t>mtrevisan@ngmetalurgica.com.br</t>
   </si>
   <si>
@@ -92,18 +110,12 @@
     <t>USIESP USINAGENS ESPECIAIS LTDA EPP</t>
   </si>
   <si>
-    <t>RUA KREBSFER 667-A VALINHOS SP BR Postal Code/City 13279-450</t>
-  </si>
-  <si>
     <t>(19) 2139-4400</t>
   </si>
   <si>
     <t>MEGALASER INDUSTRIA METALURGICA</t>
   </si>
   <si>
-    <t>AVENIDA CAETANO SORAGGI 325 CAPIVARI SP BR Postal Code/City 13360-000</t>
-  </si>
-  <si>
     <t>11 99470 0844</t>
   </si>
   <si>
@@ -111,6 +123,27 @@
   </si>
   <si>
     <t>vendas@usiesp.com.br;claudemir.lopes@prousiesp.com.br</t>
+  </si>
+  <si>
+    <t>RUA MARIA JOSE DE SOUZA BORBA 206 - POSSE - NOVA IGUACU - RJ Postal Code/City 26022-710</t>
+  </si>
+  <si>
+    <t>RUA JOAO DA SILVA MAIA 86  - CANTAGALO - GUAPIMIRIM - RJ BR Postal Code/City 25945-348</t>
+  </si>
+  <si>
+    <t>ESTRADA LAZARO PEDRO DE OLIVEIRA 300 - CAPIM FINO - PIRACICABA - SP BR Postal Code/City 13413-300</t>
+  </si>
+  <si>
+    <t>RUA KREBSFER 667A - MACUCO - VALINHOS - SP BR Postal Code/City 13279-450</t>
+  </si>
+  <si>
+    <t>AVENIDA CAETANO SORAGGI 325 - DIST. INDUSTRIAL HAP - CAPIVARI SP BR Postal Code/City 13368-106</t>
+  </si>
+  <si>
+    <t>já existente</t>
+  </si>
+  <si>
+    <t>incluído</t>
   </si>
 </sst>
 </file>
@@ -118,9 +151,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="00000"/>
+    <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,13 +169,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,18 +209,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -186,6 +247,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jorge Harbes" id="{54CCBE10-4576-4807-A371-5305224C6838}" userId="S::jorge.harbes@technipfmc.com::f2298251-29ff-4501-bd1d-163854b188cd" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,23 +550,35 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2023-11-09T11:48:36.27" personId="{54CCBE10-4576-4807-A371-5305224C6838}" id="{FFD069D2-23D5-4327-9EB2-8251BDCB9D84}">
+    <text>Fornecedor não incluído, já estava na lista do sharepoint como BROMBERG</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2023-11-09T11:49:49.76" personId="{54CCBE10-4576-4807-A371-5305224C6838}" id="{E20BC113-9E7F-4F40-A758-C8BE30812AC2}">
+    <text>Fornecedor não incluído, já estava na lista do sharepoint</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE87D127-0D2F-478B-BB8E-EA4EA62898A7}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE87D127-0D2F-478B-BB8E-EA4EA62898A7}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
     <col min="3" max="3" width="74.85546875" customWidth="1"/>
-    <col min="4" max="4" width="60" style="4" customWidth="1"/>
+    <col min="4" max="4" width="60" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,100 +595,116 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>123898</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>123974</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>123974</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>124057</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>124057</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>124289</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>161433</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>124289</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>161433</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" tooltip="mailto:pcp@mbindmecanica.com.br" display="mailto:pcp@mbindmecanica.com.br" xr:uid="{98BD2271-47A5-48AB-9A71-CEF5210970BF}"/>
-    <hyperlink ref="D4" r:id="rId2" tooltip="mailto:mtrevisan@ngmetalurgica.com.br" display="mailto:mtrevisan@ngmetalurgica.com.br" xr:uid="{81B7D91D-20D4-4791-8898-600793B9014F}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{81B7D91D-20D4-4791-8898-600793B9014F}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{64BD7321-4F20-4004-9FA5-6FB0A77A6A9F}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{DE01EC0F-C873-4346-8FB7-A6D23C866EA8}"/>
     <hyperlink ref="D2" r:id="rId5" xr:uid="{EA00FDA3-DE1C-4FB2-B068-F5A8151E58D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>